--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed1/result_data_KNN.xlsx
@@ -499,10 +499,10 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.177999999999999</v>
+        <v>5.654</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.906</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.906</v>
+        <v>-12.927</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>7.210000000000001</v>
+        <v>7.295999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.702</v>
+        <v>6.611999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.628</v>
+        <v>-12.8</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.036</v>
+        <v>5.801</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.488</v>
+        <v>-12.523</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.353999999999999</v>
+        <v>6.462000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.836</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
